--- a/daily task.xlsx
+++ b/daily task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -33,16 +33,10 @@
     <t>Dieting End</t>
   </si>
   <si>
-    <t>23/1/2023</t>
-  </si>
-  <si>
     <t>Food</t>
   </si>
   <si>
     <t>S NO</t>
-  </si>
-  <si>
-    <t>24/1/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Install Angular, Run first application, what is node and typescripting </t>
@@ -59,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\-mm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -90,26 +84,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd\-mm\-yy;@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -138,11 +149,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G69" totalsRowShown="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G69" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="2">
   <autoFilter ref="A1:G69"/>
   <tableColumns count="7">
     <tableColumn id="8" name="S NO"/>
-    <tableColumn id="1" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="1"/>
     <tableColumn id="2" name="Morning walking Steps"/>
     <tableColumn id="3" name="Dieting start "/>
     <tableColumn id="4" name="Dieting End"/>
@@ -443,40 +454,40 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="44.85546875" customWidth="1"/>
     <col min="7" max="7" width="74.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -484,8 +495,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
+      <c r="B2" s="7">
+        <v>44949</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -496,19 +507,19 @@
       <c r="E2" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
+      <c r="B3" s="7">
+        <v>44950</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -516,9 +527,11 @@
       <c r="D3" s="3">
         <v>0.46875</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <v>0.34027777777777773</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -526,10 +539,18 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="7">
+        <v>44951</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.3125</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -537,10 +558,18 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="7">
+        <v>44952</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.3263888888888889</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -548,10 +577,18 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="7">
+        <v>44953</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.375</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -559,8 +596,12 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -570,7 +611,9 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="7">
+        <v>44955</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -581,7 +624,9 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="7">
+        <v>44956</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -592,7 +637,9 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="7">
+        <v>44957</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -603,7 +650,9 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="7">
+        <v>44958</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -614,7 +663,9 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="7">
+        <v>44959</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -625,7 +676,9 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="7">
+        <v>44960</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -636,7 +689,9 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="7">
+        <v>44961</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -647,7 +702,9 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="7">
+        <v>44962</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -658,7 +715,9 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="7">
+        <v>44963</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -669,7 +728,9 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="7">
+        <v>44964</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -680,7 +741,6 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -691,7 +751,6 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -702,7 +761,6 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -713,7 +771,6 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -724,7 +781,6 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -735,7 +791,6 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -746,7 +801,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -757,7 +812,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -768,7 +823,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -779,7 +834,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -790,7 +845,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -801,7 +856,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -812,7 +867,7 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -823,7 +878,7 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -834,7 +889,7 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -845,7 +900,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -856,7 +911,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -867,7 +922,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -878,7 +933,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -889,7 +944,7 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -900,7 +955,7 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -911,7 +966,7 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -922,7 +977,7 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -933,7 +988,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -944,7 +999,7 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -955,7 +1010,7 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -966,7 +1021,7 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -977,7 +1032,7 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -988,7 +1043,7 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -999,7 +1054,7 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1010,7 +1065,7 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1021,7 +1076,7 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1032,7 +1087,7 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1043,7 +1098,7 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1054,7 +1109,7 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1065,7 +1120,7 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1076,7 +1131,7 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="4"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1087,7 +1142,7 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1098,7 +1153,7 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="4"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1109,7 +1164,7 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1120,7 +1175,7 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1131,7 +1186,7 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1142,7 +1197,7 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="4"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1153,7 +1208,7 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="4"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1164,7 +1219,7 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="4"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1175,7 +1230,7 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1186,7 +1241,7 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="4"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1197,7 +1252,7 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="4"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1208,7 +1263,7 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="4"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1219,7 +1274,7 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="4"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1228,7 +1283,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1237,7 +1292,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
